--- a/Battle Of Tanks/data/maps/mapa.xlsx
+++ b/Battle Of Tanks/data/maps/mapa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="5">
   <si>
     <t>p1</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,7 +365,7 @@
     <col min="1" max="43" width="4.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -493,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -506,107 +509,107 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>2</v>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
@@ -624,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -637,107 +640,107 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -755,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -808,25 +811,25 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -886,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -941,26 +944,26 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>2</v>
+      <c r="S5" s="1">
+        <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -1017,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1072,26 +1075,26 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>2</v>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -1148,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1206,20 +1209,20 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
+      <c r="T7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1237,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AF7" s="1">
         <v>0</v>
@@ -1279,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1337,20 +1340,20 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
+      <c r="T8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1370,8 +1373,8 @@
       <c r="AD8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="1">
-        <v>0</v>
+      <c r="AE8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1465,20 +1468,20 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>2</v>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -1501,8 +1504,8 @@
       <c r="AD9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="1">
-        <v>0</v>
+      <c r="AE9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -1541,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1596,20 +1599,20 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>2</v>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -1632,8 +1635,8 @@
       <c r="AD10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AE10" s="1">
-        <v>0</v>
+      <c r="AE10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -1672,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1688,20 +1691,20 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1727,23 +1730,23 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>2</v>
+      <c r="S11" s="1">
+        <v>0</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X11" s="1">
-        <v>0</v>
+      <c r="X11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -1751,20 +1754,20 @@
       <c r="Z11" s="1">
         <v>0</v>
       </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>0</v>
+      <c r="AA11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AF11" s="1">
         <v>0</v>
@@ -1772,20 +1775,20 @@
       <c r="AG11" s="1">
         <v>0</v>
       </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0</v>
+      <c r="AH11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -1803,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1819,20 +1822,20 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1858,11 +1861,11 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>2</v>
+      <c r="S12" s="1">
+        <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>3</v>
@@ -1871,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -1903,20 +1906,20 @@
       <c r="AG12" s="1">
         <v>0</v>
       </c>
-      <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0</v>
+      <c r="AH12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -1934,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1950,35 +1953,35 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>2</v>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -1989,23 +1992,23 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>2</v>
+      <c r="S13" s="1">
+        <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -2034,20 +2037,20 @@
       <c r="AG13" s="1">
         <v>0</v>
       </c>
-      <c r="AH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>1</v>
+      <c r="AH13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2065,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2081,26 +2084,26 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>2</v>
+      <c r="L14" s="1">
+        <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>2</v>
@@ -2111,11 +2114,11 @@
       <c r="O14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
+      <c r="P14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2123,20 +2126,20 @@
       <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
+      <c r="T14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -2165,20 +2168,20 @@
       <c r="AG14" s="1">
         <v>0</v>
       </c>
-      <c r="AH14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>0</v>
+      <c r="AH14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2196,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2213,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2230,8 +2233,8 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>2</v>
+      <c r="L15" s="1">
+        <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>2</v>
@@ -2242,11 +2245,11 @@
       <c r="O15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
+      <c r="P15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2300,16 +2303,16 @@
         <v>1</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2361,8 +2364,8 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>2</v>
+      <c r="L16" s="1">
+        <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>2</v>
@@ -2373,29 +2376,29 @@
       <c r="O16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>2</v>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -2436,17 +2439,17 @@
       <c r="AJ16" s="1">
         <v>0</v>
       </c>
-      <c r="AK16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>3</v>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>2</v>
@@ -2458,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2469,13 +2472,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -2495,26 +2498,26 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>2</v>
+      <c r="S17" s="1">
+        <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>2</v>
@@ -2528,8 +2531,8 @@
       <c r="W17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X17" s="1">
-        <v>0</v>
+      <c r="X17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2567,37 +2570,37 @@
       <c r="AJ17" s="1">
         <v>0</v>
       </c>
-      <c r="AK17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>0</v>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AQ17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2618,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -2626,41 +2629,41 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
+      <c r="M18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="Y18" s="1">
         <v>0</v>
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="1">
         <v>0</v>
@@ -2720,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2731,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -2773,28 +2776,28 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
       </c>
       <c r="X19" s="1">
         <v>1</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -2821,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -2851,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
@@ -2907,25 +2910,25 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -2982,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2992,29 +2995,29 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>2</v>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -3040,20 +3043,20 @@
       <c r="S21" s="1">
         <v>0</v>
       </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
+      <c r="T21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -3091,17 +3094,17 @@
       <c r="AJ21" s="1">
         <v>0</v>
       </c>
-      <c r="AK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>0</v>
+      <c r="AK21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="AO21" s="1">
         <v>0</v>
@@ -3113,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3171,20 +3174,20 @@
       <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
+      <c r="T22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -3244,139 +3247,438 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AQ23">
+  <conditionalFormatting sqref="F12:J12">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AL14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10:W10">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:R11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:AE11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO11:AP11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:X11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10:W10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:J18 A24:AQ24 A12:E18 X10:AQ10 Y12:AQ13 AH15:AL19 AM14:AQ19 A10:R10 K12:R14 T12:X14 Y14:AG14 A1:AQ1 K15:AG17 K18:Q18 S18:Y23 A19:Q23 Z20:AQ23 Z18:AG19 A9:AQ9 A2:Q8 S2:AQ8 M14:Q17">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AQ1 A24:AQ24 A18:Q23 S18:AQ23 A15:AQ17 A11:R14 T11:AQ14 A9:AQ10 A2:Q8 S2:AQ8 M14:Q18">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AQ1 A15:AQ24 A11:R14 T11:AQ14 A9:AQ10 A2:Q8 S2:AQ8 M14:Q18">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AQ1 A2:Q8 S2:AQ8 A9:AQ24">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AQ24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:Q18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
